--- a/4_vulnerabilidades_por_licao.xlsx
+++ b/4_vulnerabilidades_por_licao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,106 +441,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Defense in Depth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Distrust Input</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Secure By Default</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Too Many Cooks</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Complex Inputs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Defense in Depth</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Fix Untested</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Code Refactors</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Serial Killer</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Lacked Test</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Too Many Cooks</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Distrust Input</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Serial Killer</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Frameworks are Optional</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Security By Obscurity</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>You Ain't Gonna Need It</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Least Privilege</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Secure By Default</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Native Wrappers</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Security By Obscurity</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>systemd</t>
+          <t>Struts</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2" t="n">
         <v>16</v>
       </c>
-      <c r="F2" t="n">
-        <v>22</v>
-      </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
+      <c r="O2" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
